--- a/ExcelFiles/Count_Yueki.xlsx
+++ b/ExcelFiles/Count_Yueki.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\Count_Yueki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\AllExcels\zRinshoExcels\Count_Yueki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A928576-ACC7-44BD-A72F-94D36D0569C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C67031-48B7-474F-9E83-C5FD316674C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,9 +1363,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1460,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,7 +1472,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1484,31 +1484,30 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1794,7 +1793,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1802,7 +1801,8 @@
     <col min="1" max="1" width="3.25" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="4.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="12" customWidth="1"/>
+    <col min="5" max="8" width="4.375" style="12" customWidth="1"/>
     <col min="9" max="9" width="6.875" style="12" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="12" customWidth="1"/>
     <col min="11" max="11" width="6.875" style="12" customWidth="1"/>
@@ -1817,9 +1817,7 @@
       <c r="B1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="7">
-        <v>150</v>
-      </c>
+      <c r="C1" s="7"/>
       <c r="D1" s="14" t="s">
         <v>149</v>
       </c>
@@ -1828,9 +1826,7 @@
       <c r="B2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="7">
-        <v>45</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="14" t="s">
         <v>150</v>
       </c>
@@ -1839,9 +1835,9 @@
       <c r="B3" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="9" t="e">
         <f>C2/((C1/100)^2)</f>
-        <v>20</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C4" s="9">
         <f>22*(C1/100)^2</f>
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>150</v>
@@ -1928,63 +1924,61 @@
         <v>1</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!B$2:B$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="E7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!C$2:C$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="F7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!D$2:D$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="G7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!E$2:E$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="H7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!F$2:F$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="I7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!G$2:G$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="J7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!H$2:H$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="K7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!I$2:I$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="L7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!J$2:J$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="M7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!K$2:K$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="N7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!L$2:L$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="O7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!M$2:M$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="P7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!N$2:N$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
       <c r="Q7" s="14" t="str">
-        <f>IF($B7="","",(_xlfn.XLOOKUP($B7,Data!$A$2:$A$171,Data!O$2:O$171))*$C7)</f>
+        <f>IFERROR((VLOOKUP($B7,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C7,"")</f>
         <v/>
       </c>
     </row>
@@ -1993,63 +1987,61 @@
         <v>2</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!B$2:B$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="E8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!C$2:C$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="F8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!D$2:D$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="G8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!E$2:E$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="H8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!F$2:F$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="I8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!G$2:G$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="J8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!H$2:H$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="K8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!I$2:I$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="L8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!J$2:J$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="M8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!K$2:K$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="N8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!L$2:L$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="O8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!M$2:M$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="P8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!N$2:N$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
       <c r="Q8" s="14" t="str">
-        <f>IF($B8="","",(_xlfn.XLOOKUP($B8,Data!$A$2:$A$171,Data!O$2:O$171))*$C8)</f>
+        <f>IFERROR((VLOOKUP($B8,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C8,"")</f>
         <v/>
       </c>
     </row>
@@ -2058,63 +2050,61 @@
         <v>3</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!B$2:B$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="E9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!C$2:C$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="F9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!D$2:D$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="G9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!E$2:E$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="H9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!F$2:F$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="I9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!G$2:G$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="J9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!H$2:H$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="K9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!I$2:I$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="L9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!J$2:J$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="M9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!K$2:K$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="N9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!L$2:L$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="O9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!M$2:M$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="P9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!N$2:N$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
       <c r="Q9" s="14" t="str">
-        <f>IF($B9="","",(_xlfn.XLOOKUP($B9,Data!$A$2:$A$171,Data!O$2:O$171))*$C9)</f>
+        <f>IFERROR((VLOOKUP($B9,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C9,"")</f>
         <v/>
       </c>
     </row>
@@ -2123,63 +2113,61 @@
         <v>4</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!B$2:B$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="E10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!C$2:C$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="F10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!D$2:D$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="G10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!E$2:E$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="H10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!F$2:F$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="I10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!G$2:G$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="J10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!H$2:H$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="K10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!I$2:I$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="L10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!J$2:J$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="M10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!K$2:K$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="N10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!L$2:L$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="O10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!M$2:M$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="P10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!N$2:N$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
       <c r="Q10" s="14" t="str">
-        <f>IF($B10="","",(_xlfn.XLOOKUP($B10,Data!$A$2:$A$171,Data!O$2:O$171))*$C10)</f>
+        <f>IFERROR((VLOOKUP($B10,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C10,"")</f>
         <v/>
       </c>
     </row>
@@ -2188,63 +2176,61 @@
         <v>5</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!B$2:B$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="E11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!C$2:C$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="F11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!D$2:D$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="G11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!E$2:E$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="H11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!F$2:F$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="I11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!G$2:G$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="J11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!H$2:H$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="K11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!I$2:I$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="L11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!J$2:J$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="M11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!K$2:K$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="N11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!L$2:L$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="O11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!M$2:M$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="P11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!N$2:N$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
       <c r="Q11" s="14" t="str">
-        <f>IF($B11="","",(_xlfn.XLOOKUP($B11,Data!$A$2:$A$171,Data!O$2:O$171))*$C11)</f>
+        <f>IFERROR((VLOOKUP($B11,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C11,"")</f>
         <v/>
       </c>
     </row>
@@ -2253,63 +2239,61 @@
         <v>6</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!B$2:B$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="E12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!C$2:C$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="F12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!D$2:D$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="G12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!E$2:E$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="H12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!F$2:F$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="I12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!G$2:G$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="J12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!H$2:H$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="K12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!I$2:I$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="L12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!J$2:J$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="M12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!K$2:K$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="N12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!L$2:L$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="O12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!M$2:M$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="P12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!N$2:N$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
       <c r="Q12" s="14" t="str">
-        <f>IF($B12="","",(_xlfn.XLOOKUP($B12,Data!$A$2:$A$171,Data!O$2:O$171))*$C12)</f>
+        <f>IFERROR((VLOOKUP($B12,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C12,"")</f>
         <v/>
       </c>
     </row>
@@ -2318,63 +2302,61 @@
         <v>7</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!B$2:B$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="E13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!C$2:C$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="F13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!D$2:D$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="G13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!E$2:E$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="H13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!F$2:F$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="I13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!G$2:G$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="J13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!H$2:H$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="K13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!I$2:I$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="L13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!J$2:J$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="M13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!K$2:K$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="N13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!L$2:L$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="O13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!M$2:M$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="P13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!N$2:N$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
       <c r="Q13" s="14" t="str">
-        <f>IF($B13="","",(_xlfn.XLOOKUP($B13,Data!$A$2:$A$171,Data!O$2:O$171))*$C13)</f>
+        <f>IFERROR((VLOOKUP($B13,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C13,"")</f>
         <v/>
       </c>
     </row>
@@ -2383,63 +2365,61 @@
         <v>8</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!B$2:B$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="E14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!C$2:C$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="F14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!D$2:D$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="G14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!E$2:E$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="H14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!F$2:F$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="I14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!G$2:G$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="J14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!H$2:H$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="K14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!I$2:I$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="L14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!J$2:J$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="M14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!K$2:K$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="N14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!L$2:L$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="O14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!M$2:M$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="P14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!N$2:N$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
       <c r="Q14" s="14" t="str">
-        <f>IF($B14="","",(_xlfn.XLOOKUP($B14,Data!$A$2:$A$171,Data!O$2:O$171))*$C14)</f>
+        <f>IFERROR((VLOOKUP($B14,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C14,"")</f>
         <v/>
       </c>
     </row>
@@ -2448,63 +2428,61 @@
         <v>9</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!B$2:B$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="E15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!C$2:C$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="F15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!D$2:D$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="G15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!E$2:E$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="H15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!F$2:F$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="I15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!G$2:G$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="J15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!H$2:H$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="K15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!I$2:I$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="L15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!J$2:J$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="M15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!K$2:K$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="N15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!L$2:L$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="O15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!M$2:M$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="P15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!N$2:N$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
       <c r="Q15" s="14" t="str">
-        <f>IF($B15="","",(_xlfn.XLOOKUP($B15,Data!$A$2:$A$171,Data!O$2:O$171))*$C15)</f>
+        <f>IFERROR((VLOOKUP($B15,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C15,"")</f>
         <v/>
       </c>
     </row>
@@ -2513,63 +2491,61 @@
         <v>10</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!B$2:B$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="E16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!C$2:C$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="F16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!D$2:D$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="G16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!E$2:E$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="H16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!F$2:F$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="I16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!G$2:G$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="J16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!H$2:H$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="K16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!I$2:I$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="L16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!J$2:J$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="M16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!K$2:K$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="N16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!L$2:L$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="O16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!M$2:M$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="P16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!N$2:N$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
       <c r="Q16" s="14" t="str">
-        <f>IF($B16="","",(_xlfn.XLOOKUP($B16,Data!$A$2:$A$171,Data!O$2:O$171))*$C16)</f>
+        <f>IFERROR((VLOOKUP($B16,Data!$A$2:$O$171,COLUMN()-2,FALSE))*$C16,"")</f>
         <v/>
       </c>
     </row>
@@ -2632,28 +2608,18 @@
       </c>
     </row>
     <row r="18" spans="2:17">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="13" t="s">
@@ -2670,7 +2636,7 @@
       <c r="B20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>D17/C19</f>
         <v>0</v>
       </c>
@@ -2682,7 +2648,7 @@
       <c r="B21" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>E17/17</f>
         <v>0</v>
       </c>
@@ -2694,7 +2660,7 @@
       <c r="B22" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="19" t="e">
+      <c r="C22" s="18" t="e">
         <f>I17/D17*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -2721,7 +2687,7 @@
       <c r="B24" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="19" t="e">
+      <c r="C24" s="18" t="e">
         <f>(2*(E17+F17)+I17/18)/D17*1000</f>
         <v>#DIV/0!</v>
       </c>
@@ -2748,9 +2714,9 @@
       <c r="B26" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18" t="e">
         <f>K17/C2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>184</v>
@@ -2763,7 +2729,7 @@
       <c r="B27" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="19" t="e">
+      <c r="C27" s="18" t="e">
         <f>(Q17-L17)/(K17/6.25)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2776,7 +2742,7 @@
       <c r="B28" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="19" t="e">
+      <c r="C28" s="18" t="e">
         <f>F17/D17*1000</f>
         <v>#DIV/0!</v>
       </c>
@@ -2791,7 +2757,7 @@
       <c r="B29" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <f>F17/C19</f>
         <v>0</v>
       </c>
@@ -2815,7 +2781,7 @@
       <c r="B31" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="19" t="e">
+      <c r="C31" s="18" t="e">
         <f>O17/C2/C30</f>
         <v>#DIV/0!</v>
       </c>
@@ -2827,9 +2793,9 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <f ca="1">NOW()</f>
-        <v>45052.171509027779</v>
+        <v>45066.420111342595</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7665CA-DFBA-4358-921B-502DDF125876}">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2949,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <f>H2+J2+N2</f>
+        <f t="shared" ref="O2:O36" si="0">H2+J2+N2</f>
         <v>560</v>
       </c>
     </row>
@@ -2966,45 +2934,45 @@
         <v>75</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:M3" si="0">D2*1.5</f>
+        <f t="shared" ref="D3:M3" si="1">D2*1.5</f>
         <v>33</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H138" si="1">G3*4</f>
+        <f t="shared" ref="H3:H138" si="2">G3*4</f>
         <v>720</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J45" si="2">I3*4</f>
+        <f t="shared" ref="J3:J45" si="3">I3*4</f>
         <v>120</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N107" si="4">M3*9</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N107" si="3">M3*9</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <f>H3+J3+N3</f>
         <v>840</v>
       </c>
     </row>
@@ -3020,45 +2988,45 @@
         <v>100</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:M4" si="4">D2*2</f>
+        <f t="shared" ref="D4:M4" si="5">D2*2</f>
         <v>44</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>960</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O4" s="3">
-        <f>H4+J4+N4</f>
+        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
     </row>
@@ -3085,14 +3053,14 @@
         <v>175</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="I5" s="3">
         <v>30</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K5" s="3"/>
@@ -3101,11 +3069,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <f>H5+J5+N5</f>
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
     </row>
@@ -3121,45 +3089,45 @@
         <v>75</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:M6" si="5">D5*1.5</f>
+        <f t="shared" ref="D6:M6" si="6">D5*1.5</f>
         <v>40.5</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>262.5</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <f>H6+J6+N6</f>
+        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
     </row>
@@ -3176,45 +3144,45 @@
         <v>100</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:M7" si="6">D5*2</f>
+        <f t="shared" ref="D7:M7" si="7">D5*2</f>
         <v>54</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f>H7+J7+N7</f>
+        <f t="shared" si="0"/>
         <v>1640</v>
       </c>
     </row>
@@ -3241,14 +3209,14 @@
         <v>120</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K8" s="3"/>
@@ -3257,11 +3225,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f>H8+J8+N8</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -3278,45 +3246,45 @@
         <v>75</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:M9" si="7">D8*1.5</f>
+        <f t="shared" ref="D9:M9" si="8">D8*1.5</f>
         <v>45</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73.5</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.75</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <f>H9+J9+N9</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
@@ -3343,14 +3311,14 @@
         <v>175</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>30</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K10" s="3"/>
@@ -3359,11 +3327,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <f>H10+J10+N10</f>
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
     </row>
@@ -3380,45 +3348,45 @@
         <v>75</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:M11" si="8">D10*1.5</f>
+        <f t="shared" ref="D11:M11" si="9">D10*1.5</f>
         <v>45</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.5</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.75</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>262.5</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <f>H11+J11+N11</f>
+        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
     </row>
@@ -3445,14 +3413,14 @@
         <v>250</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>40</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K12" s="3"/>
@@ -3461,11 +3429,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <f>H12+J12+N12</f>
+        <f t="shared" si="0"/>
         <v>1160</v>
       </c>
     </row>
@@ -3492,14 +3460,14 @@
         <v>120</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K13" s="3"/>
@@ -3508,11 +3476,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <f>H13+J13+N13</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -3525,47 +3493,47 @@
         <v>1500</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:M14" si="9">C13*1.5</f>
+        <f t="shared" ref="C14:M14" si="10">C13*1.5</f>
         <v>75</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <f>H14+J14+N14</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
@@ -3592,25 +3560,25 @@
         <v>175</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="I15" s="1">
         <v>30</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <f>H15+J15+N15</f>
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
     </row>
@@ -3623,47 +3591,47 @@
         <v>1500</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:M16" si="10">C15*1.5</f>
+        <f t="shared" ref="C16:M16" si="11">C15*1.5</f>
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>262.5</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <f>H16+J16+N16</f>
+        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
     </row>
@@ -3690,25 +3658,25 @@
         <v>120</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="I17" s="1">
         <v>20</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <f>H17+J17+N17</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -3721,15 +3689,15 @@
         <v>1200</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:M18" si="11">C17*1.5</f>
+        <f t="shared" ref="C18:M18" si="12">C17*1.5</f>
         <v>75</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="F18" s="1">
@@ -3737,31 +3705,31 @@
         <v>12</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <f>H18+J18+N18</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
@@ -3788,25 +3756,25 @@
         <v>180</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I19" s="1">
         <v>30</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>H19+J19+N19</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
@@ -3815,69 +3783,69 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20" si="12">B19*1.5</f>
+        <f t="shared" ref="B20" si="13">B19*1.5</f>
         <v>1200</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20" si="13">C19*1.5</f>
+        <f t="shared" ref="C20" si="14">C19*1.5</f>
         <v>75</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20" si="14">D19*1.5</f>
+        <f t="shared" ref="D20" si="15">D19*1.5</f>
         <v>45</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20" si="15">E19*1.5</f>
+        <f t="shared" ref="E20" si="16">E19*1.5</f>
         <v>75</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20" si="16">F19*1.5</f>
+        <f t="shared" ref="F20" si="17">F19*1.5</f>
         <v>12</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20" si="17">G19*1.5</f>
+        <f t="shared" ref="G20" si="18">G19*1.5</f>
         <v>270</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1080</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20" si="18">I19*1.5</f>
+        <f t="shared" ref="I20" si="19">I19*1.5</f>
         <v>45</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20" si="19">M19*1.5</f>
+        <f t="shared" ref="M20" si="20">M19*1.5</f>
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <f>H20+J20+N20</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <f>H21+J21+N21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3904,25 +3872,25 @@
         <v>120</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <f>H22+J22+N22</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
     </row>
@@ -3949,25 +3917,25 @@
         <v>175</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <f>H23+J23+N23</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -3994,25 +3962,25 @@
         <v>250</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <f>H24+J24+N24</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -4028,43 +3996,43 @@
         <v>12.5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:M25" si="20">D26/2</f>
+        <f t="shared" ref="D25:M25" si="21">D26/2</f>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.5</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>125</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <f>H25+J25+N25</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -4091,22 +4059,22 @@
         <v>250</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <f>H26+J26+N26</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -4133,22 +4101,22 @@
         <v>85</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <f>H27+J27+N27</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
     </row>
@@ -4175,22 +4143,22 @@
         <v>105</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f>H28+J28+N28</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
@@ -4217,22 +4185,22 @@
         <v>120</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="I29" s="1">
         <v>20</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f>H29+J29+N29</f>
+        <f t="shared" si="0"/>
         <v>560</v>
       </c>
     </row>
@@ -4259,22 +4227,22 @@
         <v>180</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="I30" s="1">
         <v>30</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f>H30+J30+N30</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
     </row>
@@ -4301,22 +4269,22 @@
         <v>250.4</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1001.6</v>
       </c>
       <c r="I31" s="1">
         <v>40</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f>H31+J31+N31</f>
+        <f t="shared" si="0"/>
         <v>1161.5999999999999</v>
       </c>
     </row>
@@ -4343,25 +4311,25 @@
         <v>110</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
       <c r="I32" s="1">
         <v>30</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M32" s="1">
         <v>15.6</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140.4</v>
       </c>
       <c r="O32" s="3">
-        <f>H32+J32+N32</f>
+        <f t="shared" si="0"/>
         <v>700.4</v>
       </c>
     </row>
@@ -4388,43 +4356,43 @@
         <v>150</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="I33" s="1">
         <v>30</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="M33" s="1">
         <v>19.8</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>178.20000000000002</v>
       </c>
       <c r="O33" s="3">
-        <f>H33+J33+N33</f>
+        <f t="shared" si="0"/>
         <v>898.2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f>H34+J34+N34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4440,43 +4408,43 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:M35" si="21">D36*0.4</f>
+        <f t="shared" ref="D35:M35" si="22">D36*0.4</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.4200000000000008</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.680000000000003</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f>H35+J35+N35</f>
+        <f t="shared" si="0"/>
         <v>81.680000000000007</v>
       </c>
     </row>
@@ -4503,7 +4471,7 @@
         <v>37.5</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="I36" s="1">
@@ -4511,18 +4479,18 @@
         <v>13.55</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54.2</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f>H36+J36+N36</f>
+        <f t="shared" si="0"/>
         <v>204.2</v>
       </c>
     </row>
@@ -4538,43 +4506,43 @@
         <v>17.5</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:O37" si="22">D38/2</f>
+        <f t="shared" ref="D37:O37" si="23">D38/2</f>
         <v>10</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>17.5</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37.5</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>150</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>210</v>
       </c>
     </row>
@@ -4601,18 +4569,18 @@
         <v>75</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I38" s="1">
         <v>30</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O38" s="3">
@@ -4632,43 +4600,43 @@
         <v>17.5</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:O39" si="23">D40/2</f>
+        <f t="shared" ref="D39:O39" si="24">D40/2</f>
         <v>10</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.5</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37.5</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>150</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>210</v>
       </c>
     </row>
@@ -4695,18 +4663,18 @@
         <v>75</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I40" s="1">
         <v>30</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O40" s="3">
@@ -4726,43 +4694,43 @@
         <v>17.545000000000002</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41:O41" si="24">D42/2</f>
+        <f t="shared" ref="D41:O41" si="25">D42/2</f>
         <v>10.01</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>17.545000000000002</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5024999999999999</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>37.510000000000005</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>150.04000000000002</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>15.015000000000002</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60.060000000000009</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10.01</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>90.09</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>300.19000000000005</v>
       </c>
     </row>
@@ -4794,7 +4762,7 @@
         <v>75.02000000000001</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300.08000000000004</v>
       </c>
       <c r="I42" s="1">
@@ -4802,7 +4770,7 @@
         <v>30.030000000000005</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120.12000000000002</v>
       </c>
       <c r="M42" s="1">
@@ -4810,7 +4778,7 @@
         <v>20.02</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180.18</v>
       </c>
       <c r="O42" s="3">
@@ -4841,21 +4809,21 @@
         <v>37.5</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="I43" s="1">
         <v>15</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O43" s="3">
@@ -4875,43 +4843,43 @@
         <v>17.100000000000001</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ref="D44:O44" si="25">D45/2</f>
+        <f t="shared" ref="D44:O44" si="26">D45/2</f>
         <v>10</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>17.600000000000001</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>37.5</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>150</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>210</v>
       </c>
     </row>
@@ -4938,18 +4906,18 @@
         <v>75</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="I45" s="1">
         <v>30</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O45" s="3">
@@ -5153,11 +5121,11 @@
         <v>3</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:E58" si="26">D59*0.4</f>
+        <f t="shared" ref="D58:E58" si="27">D59*0.4</f>
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="H58" s="3"/>
@@ -5261,32 +5229,32 @@
         <v>18</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65:G65" si="27">D66*0.4</f>
+        <f t="shared" ref="D65:G65" si="28">D66*0.4</f>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.2</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.8</v>
       </c>
       <c r="J65" s="3"/>
       <c r="N65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O65" s="3">
-        <f>H65+J65+N65</f>
+        <f t="shared" ref="O65:O73" si="29">H65+J65+N65</f>
         <v>20.8</v>
       </c>
     </row>
@@ -5313,16 +5281,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="J66" s="3"/>
       <c r="N66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <f>H66+J66+N66</f>
+        <f t="shared" si="29"/>
         <v>52</v>
       </c>
     </row>
@@ -5338,32 +5306,32 @@
         <v>15.4</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:G67" si="28">D68*0.4</f>
+        <f t="shared" ref="D67:G67" si="30">D68*0.4</f>
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>15.4</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J67" s="3"/>
       <c r="N67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O67" s="3">
-        <f>H67+J67+N67</f>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
     </row>
@@ -5390,16 +5358,16 @@
         <v>12.5</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J68" s="3"/>
       <c r="N68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O68" s="3">
-        <f>H68+J68+N68</f>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
     </row>
@@ -5415,32 +5383,32 @@
         <v>15.5</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:G69" si="29">D70*0.4</f>
+        <f t="shared" ref="D69:G69" si="31">D70*0.4</f>
         <v>6</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11.8</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.9000000000000004</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.600000000000001</v>
       </c>
       <c r="J69" s="3"/>
       <c r="N69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O69" s="3">
-        <f>H69+J69+N69</f>
+        <f t="shared" si="29"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -5467,16 +5435,16 @@
         <v>7.25</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="J70" s="3"/>
       <c r="N70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <f>H70+J70+N70</f>
+        <f t="shared" si="29"/>
         <v>29</v>
       </c>
     </row>
@@ -5503,16 +5471,16 @@
         <v>11.75</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="J71" s="3"/>
       <c r="N71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O71" s="3">
-        <f>H71+J71+N71</f>
+        <f t="shared" si="29"/>
         <v>47</v>
       </c>
     </row>
@@ -5528,32 +5496,32 @@
         <v>16.8</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ref="D72:G72" si="30">D73*0.4</f>
+        <f t="shared" ref="D72:G72" si="32">D73*0.4</f>
         <v>4</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>13.200000000000001</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>6.4</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.6</v>
       </c>
       <c r="J72" s="3"/>
       <c r="N72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O72" s="3">
-        <f>H72+J72+N72</f>
+        <f t="shared" si="29"/>
         <v>25.6</v>
       </c>
     </row>
@@ -5580,22 +5548,22 @@
         <v>16</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="J73" s="3"/>
       <c r="N73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O73" s="3">
-        <f>H73+J73+N73</f>
+        <f t="shared" si="29"/>
         <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="H74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="3"/>
@@ -5625,16 +5593,16 @@
         <v>50</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="J75" s="3"/>
       <c r="N75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O75" s="3">
-        <f>H75+J75+N75</f>
+        <f t="shared" ref="O75:O89" si="33">H75+J75+N75</f>
         <v>200</v>
       </c>
     </row>
@@ -5650,31 +5618,31 @@
         <v>7</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" ref="D76:N76" si="31">D78*0.2</f>
+        <f t="shared" ref="D76:N76" si="34">D78*0.2</f>
         <v>4</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.6</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <f>H76+J76+N76</f>
+        <f t="shared" si="33"/>
         <v>34.4</v>
       </c>
     </row>
@@ -5690,31 +5658,31 @@
         <v>17.5</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ref="D77:N77" si="32">D78/2</f>
+        <f t="shared" ref="D77:N77" si="35">D78/2</f>
         <v>10</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>21.5</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O77" s="3">
-        <f>H77+J77+N77</f>
+        <f t="shared" si="33"/>
         <v>86</v>
       </c>
     </row>
@@ -5741,7 +5709,7 @@
         <v>43</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="J78" s="3"/>
@@ -5749,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="3">
-        <f>H78+J78+N78</f>
+        <f t="shared" si="33"/>
         <v>172</v>
       </c>
     </row>
@@ -5765,31 +5733,31 @@
         <v>7</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:N79" si="33">D80*0.4</f>
+        <f t="shared" ref="D79:N79" si="36">D80*0.4</f>
         <v>4</v>
       </c>
       <c r="E79" s="1">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="36"/>
+        <v>15</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
         <f t="shared" si="33"/>
-        <v>7</v>
-      </c>
-      <c r="F79" s="1">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <f t="shared" si="33"/>
-        <v>15</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N79" s="1">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="3">
-        <f>H79+J79+N79</f>
         <v>60</v>
       </c>
     </row>
@@ -5816,16 +5784,16 @@
         <v>37.5</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="J80" s="3"/>
       <c r="N80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O80" s="3">
-        <f>H80+J80+N80</f>
+        <f t="shared" si="33"/>
         <v>150</v>
       </c>
     </row>
@@ -5841,31 +5809,31 @@
         <v>8</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81:N81" si="34">D82*0.4</f>
+        <f t="shared" ref="D81:N81" si="37">D82*0.4</f>
         <v>4</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <f>H81+J81+N81</f>
+        <f t="shared" si="33"/>
         <v>40</v>
       </c>
     </row>
@@ -5892,7 +5860,7 @@
         <v>25</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J82" s="3"/>
@@ -5900,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="3">
-        <f>H82+J82+N82</f>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
     </row>
@@ -5916,31 +5884,31 @@
         <v>10</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" ref="D83:N89" si="35">D84*0.4</f>
+        <f t="shared" ref="D83:N89" si="38">D84*0.4</f>
         <v>4</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5.4</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <f>H83+J83+N83</f>
+        <f t="shared" si="33"/>
         <v>21.6</v>
       </c>
     </row>
@@ -5967,16 +5935,16 @@
         <v>13.5</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="J84" s="3"/>
       <c r="N84" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O84" s="3">
-        <f>H84+J84+N84</f>
+        <f t="shared" si="33"/>
         <v>54</v>
       </c>
     </row>
@@ -5992,31 +5960,31 @@
         <v>10</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" ref="D85:G85" si="36">D86*0.4</f>
+        <f t="shared" ref="D85:G85" si="39">D86*0.4</f>
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>5.4</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.6</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O85" s="3">
-        <f>H85+J85+N85</f>
+        <f t="shared" si="33"/>
         <v>21.6</v>
       </c>
     </row>
@@ -6043,16 +6011,16 @@
         <v>13.5</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="J86" s="3"/>
       <c r="N86" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O86" s="3">
-        <f>H86+J86+N86</f>
+        <f t="shared" si="33"/>
         <v>54</v>
       </c>
     </row>
@@ -6079,15 +6047,15 @@
         <v>50</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O87" s="3">
-        <f>H87+J87+N87</f>
+        <f t="shared" si="33"/>
         <v>200</v>
       </c>
     </row>
@@ -6114,15 +6082,15 @@
         <v>25</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O88" s="3">
-        <f>H88+J88+N88</f>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
     </row>
@@ -6149,15 +6117,15 @@
         <v>25</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <f>H89+J89+N89</f>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
     </row>
@@ -6173,31 +6141,31 @@
         <v>9</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" ref="D90:O90" si="37">D92*0.4</f>
+        <f t="shared" ref="D90:O90" si="40">D92*0.4</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>7.4</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>40</v>
       </c>
     </row>
@@ -6213,31 +6181,31 @@
         <v>13.5</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:O91" si="38">D92*0.6</f>
+        <f t="shared" ref="D91:O91" si="41">D92*0.6</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>11.1</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>60</v>
       </c>
     </row>
@@ -6264,7 +6232,7 @@
         <v>25</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N92" s="3">
@@ -6287,31 +6255,31 @@
         <v>9</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" ref="D93:G93" si="39">D94*0.4</f>
+        <f t="shared" ref="D93:G93" si="42">D94*0.4</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>7.4</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" ref="N93:O93" si="40">N94*0.4</f>
+        <f t="shared" ref="N93:O93" si="43">N94*0.4</f>
         <v>0</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
     </row>
@@ -6338,12 +6306,12 @@
         <v>25</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J94" s="3"/>
       <c r="N94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O94" s="3">
@@ -6374,12 +6342,12 @@
         <v>62.5</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="J95" s="3"/>
       <c r="N95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O95" s="3">
@@ -6399,31 +6367,31 @@
         <v>17.5</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" ref="D96:O96" si="41">D97*0.5</f>
+        <f t="shared" ref="D96:O96" si="44">D97*0.5</f>
         <v>10</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>17.5</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.25</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>52.5</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>210</v>
       </c>
     </row>
@@ -6450,7 +6418,7 @@
         <v>105</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="I97" s="3"/>
@@ -6459,7 +6427,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O97" s="3">
@@ -6490,7 +6458,7 @@
         <v>50</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="I98" s="3"/>
@@ -6499,7 +6467,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O98" s="3">
@@ -6536,31 +6504,31 @@
         <v>8.75</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" ref="D100:O100" si="42">D101/2</f>
+        <f t="shared" ref="D100:O100" si="45">D101/2</f>
         <v>5</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.25</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>25</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
     </row>
@@ -6587,7 +6555,7 @@
         <v>50</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="J101" s="3"/>
@@ -6611,31 +6579,31 @@
         <v>9</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" ref="D102:O102" si="43">D103*0.4</f>
+        <f t="shared" ref="D102:O102" si="46">D103*0.4</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7.4</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>40</v>
       </c>
     </row>
@@ -6662,7 +6630,7 @@
         <v>25</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I103" s="3"/>
@@ -6671,7 +6639,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O103" s="3">
@@ -6687,7 +6655,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I104" s="3"/>
@@ -6721,7 +6689,7 @@
         <v>20</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="I105" s="3"/>
@@ -6730,7 +6698,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O105" s="3">
@@ -6750,23 +6718,23 @@
         <v>6</v>
       </c>
       <c r="D106" s="3">
-        <f t="shared" ref="D106:O106" si="44">D107*0.4</f>
+        <f t="shared" ref="D106:O106" si="47">D107*0.4</f>
         <v>0</v>
       </c>
       <c r="E106" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8.6</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
       <c r="I106" s="3"/>
@@ -6775,11 +6743,11 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O106" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>34.4</v>
       </c>
     </row>
@@ -6806,7 +6774,7 @@
         <v>21.5</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="I107" s="3"/>
@@ -6815,7 +6783,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O107" s="3">
@@ -6832,7 +6800,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I108" s="3"/>
@@ -6841,7 +6809,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3">
-        <f t="shared" ref="N108:N112" si="45">M108*9</f>
+        <f t="shared" ref="N108:N112" si="48">M108*9</f>
         <v>0</v>
       </c>
       <c r="O108" s="3">
@@ -6861,23 +6829,23 @@
         <v>26.080000000000002</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" ref="D109:O109" si="46">D112/5</f>
+        <f t="shared" ref="D109:O109" si="49">D112/5</f>
         <v>0.8</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>21.880000000000003</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.54</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I109" s="3"/>
@@ -6886,11 +6854,11 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O109" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -6906,23 +6874,23 @@
         <v>32.6</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" ref="D110:O110" si="47">D112/4</f>
+        <f t="shared" ref="D110:O110" si="50">D112/4</f>
         <v>1</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>27.35</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I110" s="3"/>
@@ -6931,11 +6899,11 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O110" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -6951,23 +6919,23 @@
         <v>65.2</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" ref="D111:O111" si="48">D112/2</f>
+        <f t="shared" ref="D111:O111" si="51">D112/2</f>
         <v>2</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>54.7</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.35</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I111" s="3"/>
@@ -6976,11 +6944,11 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O111" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -7007,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I112" s="3"/>
@@ -7016,11 +6984,11 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O112" s="3">
-        <f>H112+J112+N112</f>
+        <f t="shared" ref="O112:O145" si="52">H112+J112+N112</f>
         <v>0</v>
       </c>
     </row>
@@ -7036,23 +7004,23 @@
         <v>26.2</v>
       </c>
       <c r="D113" s="3">
-        <f t="shared" ref="D113:G113" si="49">D116/5</f>
+        <f t="shared" ref="D113:G113" si="53">D116/5</f>
         <v>0.8</v>
       </c>
       <c r="E113" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>22</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.6</v>
       </c>
       <c r="G113" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="H113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I113" s="3"/>
@@ -7061,11 +7029,11 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3">
-        <f t="shared" ref="N113:N134" si="50">M113*9</f>
+        <f t="shared" ref="N113:N134" si="54">M113*9</f>
         <v>0</v>
       </c>
       <c r="O113" s="3">
-        <f>H113+J113+N113</f>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
     </row>
@@ -7081,23 +7049,23 @@
         <v>32.75</v>
       </c>
       <c r="D114" s="3">
-        <f t="shared" ref="D114:G114" si="51">D116/4</f>
+        <f t="shared" ref="D114:G114" si="55">D116/4</f>
         <v>1</v>
       </c>
       <c r="E114" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>27.5</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
       <c r="G114" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>12.5</v>
       </c>
       <c r="H114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I114" s="3"/>
@@ -7106,11 +7074,11 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O114" s="3">
-        <f>H114+J114+N114</f>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
@@ -7126,23 +7094,23 @@
         <v>65.5</v>
       </c>
       <c r="D115" s="3">
-        <f t="shared" ref="D115:G115" si="52">D116/2</f>
+        <f t="shared" ref="D115:G115" si="56">D116/2</f>
         <v>2</v>
       </c>
       <c r="E115" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>55</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.5</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>25</v>
       </c>
       <c r="H115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I115" s="3"/>
@@ -7151,11 +7119,11 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O115" s="3">
-        <f>H115+J115+N115</f>
+        <f t="shared" si="52"/>
         <v>100</v>
       </c>
     </row>
@@ -7182,7 +7150,7 @@
         <v>50</v>
       </c>
       <c r="H116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="I116" s="3"/>
@@ -7191,11 +7159,11 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O116" s="3">
-        <f>H116+J116+N116</f>
+        <f t="shared" si="52"/>
         <v>200</v>
       </c>
     </row>
@@ -7211,23 +7179,23 @@
         <v>32.75</v>
       </c>
       <c r="D117" s="3">
-        <f t="shared" ref="D117:G117" si="53">D118/2</f>
+        <f t="shared" ref="D117:G117" si="57">D118/2</f>
         <v>1</v>
       </c>
       <c r="E117" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>27.5</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G117" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>12.5</v>
       </c>
       <c r="H117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I117" s="3"/>
@@ -7236,11 +7204,11 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O117" s="3">
-        <f>H117+J117+N117</f>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
@@ -7265,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="H118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I118" s="3"/>
@@ -7274,11 +7242,11 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O118" s="3">
-        <f>H118+J118+N118</f>
+        <f t="shared" si="52"/>
         <v>100</v>
       </c>
     </row>
@@ -7294,23 +7262,23 @@
         <v>26</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" ref="D119:G119" si="54">D121*0.4</f>
+        <f t="shared" ref="D119:G119" si="58">D121*0.4</f>
         <v>0.8</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>21.8</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I119" s="3"/>
@@ -7319,11 +7287,11 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O119" s="3">
-        <f>H119+J119+N119</f>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
     </row>
@@ -7339,23 +7307,23 @@
         <v>32.5</v>
       </c>
       <c r="D120" s="3">
-        <f t="shared" ref="D120:G120" si="55">D121/2</f>
+        <f t="shared" ref="D120:G120" si="59">D121/2</f>
         <v>1</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>27.25</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.75</v>
       </c>
       <c r="G120" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>12.5</v>
       </c>
       <c r="H120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I120" s="3"/>
@@ -7364,11 +7332,11 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O120" s="3">
-        <f>H120+J120+N120</f>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
@@ -7395,7 +7363,7 @@
         <v>25</v>
       </c>
       <c r="H121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I121" s="3"/>
@@ -7404,11 +7372,11 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O121" s="3">
-        <f>H121+J121+N121</f>
+        <f t="shared" si="52"/>
         <v>100</v>
       </c>
     </row>
@@ -7436,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I122" s="3"/>
@@ -7445,11 +7413,11 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O122" s="3">
-        <f>H122+J122+N122</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7465,23 +7433,23 @@
         <v>26</v>
       </c>
       <c r="D123" s="3">
-        <f t="shared" ref="D123:G123" si="56">D125*0.4</f>
+        <f t="shared" ref="D123:G123" si="60">D125*0.4</f>
         <v>0.8</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>21.8</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G123" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="H123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I123" s="3"/>
@@ -7490,11 +7458,11 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O123" s="3">
-        <f>H123+J123+N123</f>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
     </row>
@@ -7510,23 +7478,23 @@
         <v>32.5</v>
       </c>
       <c r="D124" s="3">
-        <f t="shared" ref="D124:G124" si="57">D125/2</f>
+        <f t="shared" ref="D124:G124" si="61">D125/2</f>
         <v>1</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>27.25</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.75</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>12.5</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I124" s="3"/>
@@ -7535,11 +7503,11 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O124" s="3">
-        <f>H124+J124+N124</f>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
@@ -7566,7 +7534,7 @@
         <v>25</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I125" s="3"/>
@@ -7575,11 +7543,11 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O125" s="3">
-        <f>H125+J125+N125</f>
+        <f t="shared" si="52"/>
         <v>100</v>
       </c>
     </row>
@@ -7595,23 +7563,23 @@
         <v>65</v>
       </c>
       <c r="D126" s="3">
-        <f t="shared" ref="D126:G126" si="58">D127/2</f>
+        <f t="shared" ref="D126:G126" si="62">D127/2</f>
         <v>2</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>54.5</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1.5</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="H126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I126" s="3"/>
@@ -7620,11 +7588,11 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3">
-        <f t="shared" ref="N126:N127" si="59">M126*9</f>
+        <f t="shared" ref="N126:N127" si="63">M126*9</f>
         <v>0</v>
       </c>
       <c r="O126" s="3">
-        <f>H126+J126+N126</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7651,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I127" s="3"/>
@@ -7660,11 +7628,11 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O127" s="3">
-        <f>H127+J127+N127</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7680,23 +7648,23 @@
         <v>35</v>
       </c>
       <c r="D128" s="3">
-        <f t="shared" ref="D128:G128" si="60">D129/2</f>
+        <f t="shared" ref="D128:G128" si="64">D129/2</f>
         <v>1</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>28.75</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>2.5</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I128" s="3"/>
@@ -7705,11 +7673,11 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3">
-        <f t="shared" ref="N128:N133" si="61">M128*9</f>
+        <f t="shared" ref="N128:N133" si="65">M128*9</f>
         <v>0</v>
       </c>
       <c r="O128" s="3">
-        <f>H128+J128+N128</f>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
     </row>
@@ -7736,7 +7704,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I129" s="3"/>
@@ -7745,11 +7713,11 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O129" s="3">
-        <f>H129+J129+N129</f>
+        <f t="shared" si="52"/>
         <v>20</v>
       </c>
     </row>
@@ -7776,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I130" s="3"/>
@@ -7785,11 +7753,11 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O130" s="3">
-        <f>H130+J130+N130</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,23 +7773,23 @@
         <v>65</v>
       </c>
       <c r="D131" s="3">
-        <f t="shared" ref="D131:G131" si="62">D132/2</f>
+        <f t="shared" ref="D131:G131" si="66">D132/2</f>
         <v>2</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>54.5</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1.5</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I131" s="3"/>
@@ -7830,11 +7798,11 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O131" s="3">
-        <f>H131+J131+N131</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7861,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I132" s="3"/>
@@ -7870,11 +7838,11 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O132" s="3">
-        <f>H132+J132+N132</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7901,7 +7869,7 @@
         <v>12.5</v>
       </c>
       <c r="H133" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I133" s="3"/>
@@ -7910,11 +7878,11 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O133" s="3">
-        <f>H133+J133+N133</f>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
@@ -7930,23 +7898,23 @@
         <v>15.4</v>
       </c>
       <c r="D134" s="3">
-        <f t="shared" ref="D134:G134" si="63">D137/10</f>
+        <f t="shared" ref="D134:G134" si="67">D137/10</f>
         <v>0</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>15.4</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G134" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H134" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I134" s="3"/>
@@ -7955,11 +7923,11 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O134" s="3">
-        <f>H134+J134+N134</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -7975,23 +7943,23 @@
         <v>30.8</v>
       </c>
       <c r="D135" s="3">
-        <f t="shared" ref="D135:G135" si="64">D137/5</f>
+        <f t="shared" ref="D135:G135" si="68">D137/5</f>
         <v>0</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>30.8</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G135" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="H135" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I135" s="3"/>
@@ -8000,11 +7968,11 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3">
-        <f t="shared" ref="N135:N137" si="65">M135*9</f>
+        <f t="shared" ref="N135:N137" si="69">M135*9</f>
         <v>0</v>
       </c>
       <c r="O135" s="3">
-        <f>H135+J135+N135</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8020,23 +7988,23 @@
         <v>77</v>
       </c>
       <c r="D136" s="3">
-        <f t="shared" ref="D136:G136" si="66">D137/2</f>
+        <f t="shared" ref="D136:G136" si="70">D137/2</f>
         <v>0</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>77</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G136" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="H136" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I136" s="3"/>
@@ -8045,11 +8013,11 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O136" s="3">
-        <f>H136+J136+N136</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8074,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I137" s="3"/>
@@ -8083,26 +8051,26 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="O137" s="3">
-        <f>H137+J137+N137</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="H138" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J138" s="3"/>
       <c r="N138" s="3">
-        <f t="shared" ref="N138:N157" si="67">M138*9</f>
+        <f t="shared" ref="N138:N157" si="71">M138*9</f>
         <v>0</v>
       </c>
       <c r="O138" s="3">
-        <f>H138+J138+N138</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8123,7 +8091,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <f t="shared" ref="H139:H158" si="68">G139*4</f>
+        <f t="shared" ref="H139:H158" si="72">G139*4</f>
         <v>0</v>
       </c>
       <c r="I139" s="3"/>
@@ -8132,11 +8100,11 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O139" s="3">
-        <f>H139+J139+N139</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,7 +8124,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I140" s="3"/>
@@ -8165,11 +8133,11 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O140" s="3">
-        <f>H140+J140+N140</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8190,7 +8158,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I141" s="3"/>
@@ -8199,11 +8167,11 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O141" s="3">
-        <f>H141+J141+N141</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8224,7 +8192,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I142" s="3"/>
@@ -8233,11 +8201,11 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3">
-        <f t="shared" ref="N142:N154" si="69">M142*9</f>
+        <f t="shared" ref="N142:N154" si="73">M142*9</f>
         <v>0</v>
       </c>
       <c r="O142" s="3">
-        <f>H142+J142+N142</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8250,7 +8218,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I143" s="3"/>
@@ -8259,11 +8227,11 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O143" s="3">
-        <f>H143+J143+N143</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -8282,7 +8250,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="I144" s="3"/>
@@ -8291,11 +8259,11 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O144" s="3">
-        <f>H144+J144+N144</f>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
     </row>
@@ -8314,7 +8282,7 @@
         <v>2.5</v>
       </c>
       <c r="H145" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>10</v>
       </c>
       <c r="I145" s="3"/>
@@ -8323,11 +8291,11 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O145" s="3">
-        <f>H145+J145+N145</f>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
     </row>
@@ -8346,7 +8314,7 @@
         <v>5</v>
       </c>
       <c r="H146" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>20</v>
       </c>
       <c r="I146" s="3"/>
@@ -8372,7 +8340,7 @@
         <v>25</v>
       </c>
       <c r="H147" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>100</v>
       </c>
       <c r="I147" s="3"/>
@@ -8398,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
       <c r="I148" s="3"/>
@@ -8407,11 +8375,11 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O148" s="3">
-        <f>H148+J148+N148</f>
+        <f t="shared" ref="O148:O158" si="74">H148+J148+N148</f>
         <v>8</v>
       </c>
     </row>
@@ -8430,7 +8398,7 @@
         <v>50</v>
       </c>
       <c r="H149" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>200</v>
       </c>
       <c r="I149" s="3"/>
@@ -8439,11 +8407,11 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O149" s="3">
-        <f>H149+J149+N149</f>
+        <f t="shared" si="74"/>
         <v>200</v>
       </c>
     </row>
@@ -8462,7 +8430,7 @@
         <v>4</v>
       </c>
       <c r="H150" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>16</v>
       </c>
       <c r="I150" s="3"/>
@@ -8471,11 +8439,11 @@
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O150" s="3">
-        <f>H150+J150+N150</f>
+        <f t="shared" si="74"/>
         <v>16</v>
       </c>
     </row>
@@ -8494,7 +8462,7 @@
         <v>10</v>
       </c>
       <c r="H151" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>40</v>
       </c>
       <c r="I151" s="3"/>
@@ -8503,11 +8471,11 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O151" s="3">
-        <f>H151+J151+N151</f>
+        <f t="shared" si="74"/>
         <v>40</v>
       </c>
     </row>
@@ -8526,7 +8494,7 @@
         <v>100</v>
       </c>
       <c r="H152" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>400</v>
       </c>
       <c r="I152" s="3"/>
@@ -8535,11 +8503,11 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O152" s="3">
-        <f>H152+J152+N152</f>
+        <f t="shared" si="74"/>
         <v>400</v>
       </c>
     </row>
@@ -8558,7 +8526,7 @@
         <v>250</v>
       </c>
       <c r="H153" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1000</v>
       </c>
       <c r="I153" s="3"/>
@@ -8567,11 +8535,11 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O153" s="3">
-        <f>H153+J153+N153</f>
+        <f t="shared" si="74"/>
         <v>1000</v>
       </c>
     </row>
@@ -8590,11 +8558,11 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O154" s="3">
-        <f>H154+J154+N154</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
@@ -8611,7 +8579,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I155" s="3"/>
@@ -8622,11 +8590,11 @@
         <v>25</v>
       </c>
       <c r="N155" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>225</v>
       </c>
       <c r="O155" s="3">
-        <f>H155+J155+N155</f>
+        <f t="shared" si="74"/>
         <v>225</v>
       </c>
     </row>
@@ -8643,7 +8611,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I156" s="3"/>
@@ -8654,11 +8622,11 @@
         <v>10</v>
       </c>
       <c r="N156" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>90</v>
       </c>
       <c r="O156" s="3">
-        <f>H156+J156+N156</f>
+        <f t="shared" si="74"/>
         <v>90</v>
       </c>
     </row>
@@ -8675,7 +8643,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I157" s="3"/>
@@ -8686,11 +8654,11 @@
         <v>20</v>
       </c>
       <c r="N157" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>180</v>
       </c>
       <c r="O157" s="3">
-        <f>H157+J157+N157</f>
+        <f t="shared" si="74"/>
         <v>180</v>
       </c>
     </row>
@@ -8707,7 +8675,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I158" s="3"/>
@@ -8718,11 +8686,11 @@
         <v>50</v>
       </c>
       <c r="N158" s="3">
-        <f t="shared" ref="N158" si="70">M158*9</f>
+        <f t="shared" ref="N158" si="75">M158*9</f>
         <v>450</v>
       </c>
       <c r="O158" s="3">
-        <f>H158+J158+N158</f>
+        <f t="shared" si="74"/>
         <v>450</v>
       </c>
     </row>
